--- a/tests/data.gui/test/concentrations/ds.5p.tab/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.5p.tab/kev.concentrations.data.xlsx
@@ -9,10 +9,11 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="molecule1_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="molecule1_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -1199,602 +1200,206 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47193060075838e-08</v>
+        <v>0.1056</v>
       </c>
       <c r="B2" t="n">
-        <v>4.35648140123142e-06</v>
+        <v>0.0888</v>
       </c>
       <c r="C2" t="n">
-        <v>8.259517860201e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08121321620378e-09</v>
+        <v>9.923e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>7.45206659465737e-20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0719907080442944</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.016804168421762</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.66127872978831e-08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.3841647678127e-07</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.80843408700127e-07</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.87957484667867e-10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.42518792359449e-11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.21702589109534e-10</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.71419026054514e-10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.5021249924772e-06</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.54793340624783e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.92626363472257e-08</v>
+        <v>0.1012</v>
       </c>
       <c r="B3" t="n">
-        <v>6.3931904435632e-06</v>
+        <v>0.08851</v>
       </c>
       <c r="C3" t="n">
-        <v>6.47880379834073e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D3" t="n">
-        <v>3.40379993218273e-09</v>
+        <v>1.985e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>4.81608329433754e-20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0758048685850804</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0126962819036889</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.61123719046309e-08</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.58839845109512e-07</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.80298241711158e-07</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.84921157679074e-10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.35830017660115e-11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.72712658642102e-10</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.48223712219937e-10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.84057568965835e-05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.18391670571381e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.47228702823064e-08</v>
+        <v>0.0968</v>
       </c>
       <c r="B4" t="n">
-        <v>3.99291961879961e-06</v>
+        <v>0.0814</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8107002396986e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D4" t="n">
-        <v>8.97114022037696e-09</v>
+        <v>2.977e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.60625463599896e-20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0659871598202329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0154038153764764</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.10656765883965e-08</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.05270595806089e-06</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.95779185358041e-06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.19016053747683e-09</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.69084677794175e-10</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.83941098693577e-09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.32819141763064e-10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.67463323919366e-05</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.39374536400113e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.4727940615608e-08</v>
+        <v>0.0924</v>
       </c>
       <c r="B5" t="n">
-        <v>3.81071608009767e-06</v>
+        <v>0.0777</v>
       </c>
       <c r="C5" t="n">
-        <v>3.52048982938125e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07920958099104e-08</v>
+        <v>3.969e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>1.32012539677455e-20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0629818914032496</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0147036381007256</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.82953495953828e-08</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.32870226975134e-06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.13361158046459e-06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.84532678506818e-09</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.57065489549456e-10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.26274311437927e-09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.43558389677107e-10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.31974293792115e-05</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8.67987466014321e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47365109146716e-08</v>
+        <v>0.088</v>
       </c>
       <c r="B6" t="n">
-        <v>3.62811583017332e-06</v>
+        <v>0.074</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64353503687252e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1745766864785e-08</v>
+        <v>4.962e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>7.04167303152096e-21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0599733425383925</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0140034603149184</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.55280567901287e-08</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.45215932665477e-06</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.525388963188e-06</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.26505087421488e-09</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.50254210984737e-10</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8.55727192482073e-09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.82887941121774e-10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.75822333743317e-05</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9.29583269725489e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47482812436143e-08</v>
+        <v>0.0836</v>
       </c>
       <c r="B7" t="n">
-        <v>3.44522693835876e-06</v>
+        <v>0.0703</v>
       </c>
       <c r="C7" t="n">
-        <v>2.08363248078989e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D7" t="n">
-        <v>7.22009754521897e-08</v>
+        <v>5.954e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>4.19604718423431e-21</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0569624058665408</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0133032824966306</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.27629784158917e-08</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.31360311511096e-06</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.17413953822215e-05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.52230571745555e-08</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.0149874958102e-09</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.47969625777812e-08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.4415214822231e-10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4.0381765519978e-05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9.5803952815769e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.47626832629993e-08</v>
+        <v>0.0792</v>
       </c>
       <c r="B8" t="n">
-        <v>3.26218150633846e-06</v>
+        <v>0.0666</v>
       </c>
       <c r="C8" t="n">
-        <v>1.71176203726648e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D8" t="n">
-        <v>1.11904809667856e-07</v>
+        <v>6.946e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>2.74820344760703e-21</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.053950172903763</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0126031051721784</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.99991107094244e-08</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.07359775280608e-05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.63242950098622e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.23525107973582e-08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41189979045813e-09</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.29278870375072e-08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.18424999222424e-10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4.2241130625363e-05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>9.72517965789993e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.47794384478432e-08</v>
+        <v>0.0748</v>
       </c>
       <c r="B9" t="n">
-        <v>3.07906377005467e-06</v>
+        <v>0.0629</v>
       </c>
       <c r="C9" t="n">
-        <v>1.44775282472813e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6132840920442e-07</v>
+        <v>7.938e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>1.92246608026672e-21</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0509373397201389</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0119029287911701</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.72358148223707e-08</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.46132599864922e-05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.09789317691348e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.04343959786216e-08</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.81559309479293e-09</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.30440503699004e-08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.0016002423823e-10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4.35611857963845e-05</v>
-      </c>
-      <c r="P9" t="n">
-        <v>9.80775339197679e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.47985655031628e-08</v>
+        <v>0.0704</v>
       </c>
       <c r="B10" t="n">
-        <v>2.89591900803727e-06</v>
+        <v>0.0592</v>
       </c>
       <c r="C10" t="n">
-        <v>1.24860634505647e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21852402922235e-07</v>
+        <v>8.931e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>1.40536504195348e-21</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.047924280491445</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0112027537864045</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.44727495757641e-08</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.89068743645106e-05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.55373212442338e-05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.93902673231826e-08</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.21163635022672e-09</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4.54250011700792e-08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.63824539995962e-11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4.45569250834905e-05</v>
-      </c>
-      <c r="P10" t="n">
-        <v>9.85946349580465e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.47228875479908e-08</v>
+        <v>0.066</v>
       </c>
       <c r="B11" t="n">
-        <v>2.72243915082703e-06</v>
+        <v>0.0555</v>
       </c>
       <c r="C11" t="n">
-        <v>4.2957809709431e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D11" t="n">
-        <v>1.23337098223481e-08</v>
+        <v>9.923e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>1.73460130526062e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.044991159646946</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0105025847047167</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.16356355615804e-08</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.86781306653099e-07</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.25126155470489e-06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05300458526756e-09</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.08065262367672e-10</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.52885961446091e-09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.97195431998266e-10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.93209465482157e-05</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6.76539869538576e-05</v>
+        <v>8.5e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.47194089024794e-08</v>
+        <v>0.066</v>
       </c>
       <c r="B12" t="n">
-        <v>2.72278534279773e-06</v>
+        <v>0.0555</v>
       </c>
       <c r="C12" t="n">
-        <v>7.10471770785006e-05</v>
+        <v>1e-04</v>
       </c>
       <c r="D12" t="n">
-        <v>2.22617802819657e-09</v>
+        <v>5e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>4.98832349781443e-05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0449940204530305</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0105025848468632</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.16329894150031e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.78120823147505e-07</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.25875691363313e-07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7055791219324e-10</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.95052845146662e-11</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.5647657390629e-10</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.91526374992686e-10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4476165700208e-05</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.51167650717296e-05</v>
+        <v>8.5e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1813,422 +1418,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="A2" t="n">
+        <v>5.47193060075838e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.35648140123142e-06</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.259517860201e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08121321620378e-09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.45206659465737e-20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0719907080442944</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.016804168421762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.66127872978831e-08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.3841647678127e-07</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.80843408700127e-07</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.87957484667867e-10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.42518792359449e-11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.21702589109534e-10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.71419026054514e-10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.5021249924772e-06</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.54793340624783e-20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
+      <c r="A3" t="n">
+        <v>3.92626363472257e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.3931904435632e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.47880379834073e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.40379993218273e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.81608329433754e-20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0758048685850804</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0126962819036889</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.61123719046309e-08</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.58839845109512e-07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.80298241711158e-07</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.84921157679074e-10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.35830017660115e-11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.72712658642102e-10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.48223712219937e-10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.84057568965835e-05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.18391670571381e-20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
+      <c r="A4" t="n">
+        <v>5.47228702823064e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.99291961879961e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.8107002396986e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.97114022037696e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.60625463599896e-20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0659871598202329</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0154038153764764</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.10656765883965e-08</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.05270595806089e-06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.95779185358041e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.19016053747683e-09</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.69084677794175e-10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.83941098693577e-09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.32819141763064e-10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.67463323919366e-05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.39374536400113e-20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
+      <c r="A5" t="n">
+        <v>5.4727940615608e-08</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.81071608009767e-06</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.52048982938125e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.07920958099104e-08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.32012539677455e-20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0629818914032496</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0147036381007256</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.82953495953828e-08</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.32870226975134e-06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.13361158046459e-06</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.84532678506818e-09</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.57065489549456e-10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.26274311437927e-09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.43558389677107e-10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.31974293792115e-05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.67987466014321e-20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
+      <c r="A6" t="n">
+        <v>5.47365109146716e-08</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.62811583017332e-06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.64353503687252e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.1745766864785e-08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.04167303152096e-21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0599733425383925</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0140034603149184</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.55280567901287e-08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.45215932665477e-06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.525388963188e-06</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.26505087421488e-09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.50254210984737e-10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.55727192482073e-09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.82887941121774e-10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.75822333743317e-05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.29583269725489e-20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
+      <c r="A7" t="n">
+        <v>5.47482812436143e-08</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.44522693835876e-06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.08363248078989e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.22009754521897e-08</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.19604718423431e-21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0569624058665408</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0133032824966306</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.27629784158917e-08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.31360311511096e-06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.17413953822215e-05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.52230571745555e-08</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0149874958102e-09</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.47969625777812e-08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.4415214822231e-10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.0381765519978e-05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.5803952815769e-20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
+      <c r="A8" t="n">
+        <v>5.47626832629993e-08</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.26218150633846e-06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.71176203726648e-05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.11904809667856e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.74820344760703e-21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.053950172903763</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0126031051721784</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.99991107094244e-08</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.07359775280608e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.63242950098622e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.23525107973582e-08</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.41189979045813e-09</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.29278870375072e-08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.18424999222424e-10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.2241130625363e-05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.72517965789993e-20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
+      <c r="A9" t="n">
+        <v>5.47794384478432e-08</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.07906377005467e-06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.44775282472813e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.6132840920442e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.92246608026672e-21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0509373397201389</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0119029287911701</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.72358148223707e-08</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.46132599864922e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.09789317691348e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.04343959786216e-08</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.81559309479293e-09</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.30440503699004e-08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.0016002423823e-10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.35611857963845e-05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.80775339197679e-20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>79</v>
+      <c r="A10" t="n">
+        <v>5.47985655031628e-08</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.89591900803727e-06</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.24860634505647e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.21852402922235e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.40536504195348e-21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.047924280491445</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0112027537864045</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.44727495757641e-08</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.89068743645106e-05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.55373212442338e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.93902673231826e-08</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.21163635022672e-09</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.54250011700792e-08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.63824539995962e-11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.45569250834905e-05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.85946349580465e-20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
+      <c r="A11" t="n">
+        <v>5.47228875479908e-08</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.72243915082703e-06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.2957809709431e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.23337098223481e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.73460130526062e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.044991159646946</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0105025847047167</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.16356355615804e-08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.86781306653099e-07</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.25126155470489e-06</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05300458526756e-09</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.08065262367672e-10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.52885961446091e-09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.97195431998266e-10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.93209465482157e-05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.76539869538576e-05</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
+      <c r="A12" t="n">
+        <v>5.47194089024794e-08</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.72278534279773e-06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.10471770785006e-05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.22617802819657e-09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.98832349781443e-05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0449940204530305</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0105025848468632</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.16329894150031e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.78120823147505e-07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.25875691363313e-07</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.7055791219324e-10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.95052845146662e-11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.5647657390629e-10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.91526374992686e-10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4476165700208e-05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.51167650717296e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2247,206 +2032,422 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3.02262423844444e-15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.59447206733933e-15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.8960963025757e-11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.15211322428474e-10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.05200314630368e-11</v>
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4.11396871773156e-15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.70380334690356e-15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.81908571768069e-12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.7805843561995e-12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.13428849049332e-12</v>
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>-2.15048364790513e-15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.38684311190912e-15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.01377171639885e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95753667353362e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.38890847888777e-15</v>
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3.17446886478319e-12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.77504405541784e-12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.01008972983515e-09</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.16056031678741e-08</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.6917751536917e-09</v>
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.15595664353727e-13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.36902501347359e-13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.2458284420135e-11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.62220772981441e-10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.06987515847911e-11</v>
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>-2.65603594407932e-15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.77667269232333e-15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.16136706298062e-14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.84486450453372e-13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.31019209191556e-14</v>
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5.26111842082865e-12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.25542327313198e-12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.76280223472358e-10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.89546925780457e-09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.66063129215965e-10</v>
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1.09463834312975e-14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.32379533937817e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.33250411190061e-13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.30497771453528e-12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.45824795639033e-13</v>
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2.56265968042028e-15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.93027614185271e-15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.86747421441893e-15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.3460865925852e-15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.20370621524202e-16</v>
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5.04646829375071e-15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.37607996158578e-15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.27399090907659e-11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.73676917173691e-11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.60443459631737e-11</v>
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>3.99512073255265e-15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.7509543846572e-15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.29167909577716e-11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8.49453428604374e-11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.86752039418616e-10</v>
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2467,6 +2468,224 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.02262423844444e-15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.59447206733933e-15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.8960963025757e-11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.15211322428474e-10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.05200314630368e-11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.11396871773156e-15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.70380334690356e-15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.81908571768069e-12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.7805843561995e-12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.13428849049332e-12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.15048364790513e-15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.38684311190912e-15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.01377171639885e-14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95753667353362e-14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.38890847888777e-15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.17446886478319e-12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.77504405541784e-12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.01008972983515e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16056031678741e-08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.6917751536917e-09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.15595664353727e-13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.36902501347359e-13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.2458284420135e-11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.62220772981441e-10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.06987515847911e-11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-2.65603594407932e-15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.77667269232333e-15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.16136706298062e-14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.84486450453372e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.31019209191556e-14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.26111842082865e-12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.25542327313198e-12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.76280223472358e-10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.89546925780457e-09</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.66063129215965e-10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.09463834312975e-14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.32379533937817e-14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.33250411190061e-13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.30497771453528e-12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.45824795639033e-13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.56265968042028e-15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.93027614185271e-15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.86747421441893e-15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.3460865925852e-15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.20370621524202e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.04646829375071e-15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.37607996158578e-15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.27399090907659e-11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.73676917173691e-11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.60443459631737e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.99512073255265e-15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.7509543846572e-15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.29167909577716e-11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.49453428604374e-11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.86752039418616e-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
